--- a/results/mp/tinybert/toy-spam/confidence/84/stop-words-masking-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/84/stop-words-masking-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,33 +46,39 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>poor</t>
+  </si>
+  <si>
     <t>however</t>
   </si>
   <si>
-    <t>poor</t>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>waste</t>
   </si>
   <si>
     <t>broke</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
     <t>smaller</t>
   </si>
   <si>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
     <t>small</t>
   </si>
   <si>
-    <t>junk</t>
-  </si>
-  <si>
     <t>broken</t>
   </si>
   <si>
+    <t>apart</t>
+  </si>
+  <si>
     <t>plastic</t>
   </si>
   <si>
@@ -88,69 +94,60 @@
     <t>thought</t>
   </si>
   <si>
-    <t>apart</t>
+    <t>bit</t>
   </si>
   <si>
     <t>size</t>
   </si>
   <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
     <t>money</t>
   </si>
   <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
-    <t>box</t>
-  </si>
-  <si>
     <t>product</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
+    <t>buy</t>
+  </si>
+  <si>
     <t>use</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>buy</t>
+    <t>like</t>
   </si>
   <si>
     <t>little</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>much</t>
+    <t>toy</t>
   </si>
   <si>
     <t>one</t>
   </si>
   <si>
-    <t>toy</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -169,12 +166,12 @@
     <t>classic</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>loves</t>
   </si>
   <si>
@@ -184,43 +181,43 @@
     <t>loved</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
     <t>perfect</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
-    <t>friends</t>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>every</t>
   </si>
   <si>
     <t>christmas</t>
   </si>
   <si>
-    <t>learn</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>enjoy</t>
   </si>
   <si>
     <t>fun</t>
   </si>
   <si>
+    <t>game</t>
+  </si>
+  <si>
     <t>easy</t>
   </si>
   <si>
-    <t>game</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>playing</t>
-  </si>
-  <si>
     <t>play</t>
+  </si>
+  <si>
+    <t>year</t>
   </si>
   <si>
     <t>positive</t>
@@ -581,7 +578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q39"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -589,10 +586,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -650,28 +647,28 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9782608695652174</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="C3">
+        <v>43</v>
+      </c>
+      <c r="D3">
+        <v>43</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="D3">
-        <v>45</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="K3">
         <v>0.8928571428571429</v>
@@ -721,16 +718,16 @@
         <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K4">
-        <v>0.8923076923076924</v>
+        <v>0.8307692307692308</v>
       </c>
       <c r="L4">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -742,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -750,13 +747,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.75</v>
+        <v>0.7464788732394366</v>
       </c>
       <c r="C5">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D5">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -768,19 +765,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K5">
-        <v>0.8387096774193549</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="L5">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="M5">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -792,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -800,13 +797,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7323943661971831</v>
+        <v>0.71875</v>
       </c>
       <c r="C6">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D6">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -818,19 +815,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K6">
-        <v>0.75</v>
+        <v>0.796875</v>
       </c>
       <c r="L6">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="M6">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -842,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -850,13 +847,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6747572815533981</v>
+        <v>0.6881720430107527</v>
       </c>
       <c r="C7">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="D7">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -868,19 +865,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K7">
-        <v>0.660377358490566</v>
+        <v>0.7358490566037735</v>
       </c>
       <c r="L7">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M7">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -892,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -900,13 +897,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6666666666666666</v>
+        <v>0.668918918918919</v>
       </c>
       <c r="C8">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="D8">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -918,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K8">
-        <v>0.5868005738880918</v>
+        <v>0.6376811594202898</v>
       </c>
       <c r="L8">
-        <v>409</v>
+        <v>44</v>
       </c>
       <c r="M8">
-        <v>409</v>
+        <v>44</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -942,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>288</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -950,13 +947,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6216216216216216</v>
+        <v>0.6456310679611651</v>
       </c>
       <c r="C9">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="D9">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -968,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K9">
-        <v>0.5507246376811594</v>
+        <v>0.5724533715925395</v>
       </c>
       <c r="L9">
-        <v>38</v>
+        <v>399</v>
       </c>
       <c r="M9">
-        <v>38</v>
+        <v>399</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -992,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>31</v>
+        <v>298</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1000,13 +997,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5966386554621849</v>
+        <v>0.6302521008403361</v>
       </c>
       <c r="C10">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D10">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1018,19 +1015,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K10">
-        <v>0.516597510373444</v>
+        <v>0.5373443983402489</v>
       </c>
       <c r="L10">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="M10">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1042,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>233</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1050,13 +1047,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.527536231884058</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="C11">
-        <v>182</v>
+        <v>29</v>
       </c>
       <c r="D11">
-        <v>182</v>
+        <v>29</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1068,19 +1065,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>163</v>
+        <v>19</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K11">
-        <v>0.4631147540983607</v>
+        <v>0.4721311475409836</v>
       </c>
       <c r="L11">
-        <v>565</v>
+        <v>576</v>
       </c>
       <c r="M11">
-        <v>565</v>
+        <v>576</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1092,7 +1089,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>655</v>
+        <v>644</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1100,13 +1097,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5272727272727272</v>
+        <v>0.5818181818181818</v>
       </c>
       <c r="C12">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D12">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1118,19 +1115,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K12">
-        <v>0.3944954128440367</v>
+        <v>0.363914373088685</v>
       </c>
       <c r="L12">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="M12">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1142,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>198</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1150,13 +1147,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4819277108433735</v>
+        <v>0.5449275362318841</v>
       </c>
       <c r="C13">
-        <v>40</v>
+        <v>188</v>
       </c>
       <c r="D13">
-        <v>40</v>
+        <v>188</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1168,19 +1165,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>43</v>
+        <v>157</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K13">
-        <v>0.3674698795180723</v>
+        <v>0.3386243386243386</v>
       </c>
       <c r="L13">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M13">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1192,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>105</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1200,13 +1197,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4488188976377953</v>
+        <v>0.4819277108433735</v>
       </c>
       <c r="C14">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="D14">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1218,19 +1215,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K14">
-        <v>0.3666666666666666</v>
+        <v>0.3373493975903614</v>
       </c>
       <c r="L14">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M14">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1242,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>76</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1250,13 +1247,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4265402843601896</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="C15">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="D15">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1268,19 +1265,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K15">
-        <v>0.3492063492063492</v>
+        <v>0.3</v>
       </c>
       <c r="L15">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="M15">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1292,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>123</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1300,13 +1297,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.421875</v>
+        <v>0.4330708661417323</v>
       </c>
       <c r="C16">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D16">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1318,19 +1315,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K16">
-        <v>0.2449799196787149</v>
+        <v>0.2734375</v>
       </c>
       <c r="L16">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="M16">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1342,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>188</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1350,13 +1347,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4157303370786517</v>
+        <v>0.4265402843601896</v>
       </c>
       <c r="C17">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="D17">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1368,19 +1365,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K17">
-        <v>0.2421875</v>
+        <v>0.2657342657342657</v>
       </c>
       <c r="L17">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="M17">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1392,7 +1389,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1400,13 +1397,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3267326732673267</v>
+        <v>0.421875</v>
       </c>
       <c r="C18">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="D18">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1418,19 +1415,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K18">
-        <v>0.2237762237762238</v>
+        <v>0.24</v>
       </c>
       <c r="L18">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M18">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1442,7 +1439,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>111</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1450,13 +1447,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3263157894736842</v>
+        <v>0.3370786516853932</v>
       </c>
       <c r="C19">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1468,19 +1465,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K19">
-        <v>0.2096774193548387</v>
+        <v>0.21285140562249</v>
       </c>
       <c r="L19">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="M19">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1492,7 +1489,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>147</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1500,13 +1497,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.2525773195876289</v>
+        <v>0.3168316831683168</v>
       </c>
       <c r="C20">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="D20">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1518,19 +1515,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K20">
-        <v>0.1761612620508326</v>
+        <v>0.2096774193548387</v>
       </c>
       <c r="L20">
-        <v>201</v>
+        <v>39</v>
       </c>
       <c r="M20">
-        <v>201</v>
+        <v>39</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1542,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>940</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1550,13 +1547,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.2088607594936709</v>
+        <v>0.2959183673469388</v>
       </c>
       <c r="C21">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="D21">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1568,19 +1565,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>250</v>
+        <v>69</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K21">
-        <v>0.106951871657754</v>
+        <v>0.1840490797546012</v>
       </c>
       <c r="L21">
-        <v>40</v>
+        <v>210</v>
       </c>
       <c r="M21">
-        <v>40</v>
+        <v>210</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1592,7 +1589,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>334</v>
+        <v>931</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1600,13 +1597,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.2038216560509554</v>
+        <v>0.2216494845360825</v>
       </c>
       <c r="C22">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D22">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1618,19 +1615,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K22">
-        <v>0.1046814044213264</v>
+        <v>0.1033810143042913</v>
       </c>
       <c r="L22">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="M22">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="N22">
         <v>0.98</v>
@@ -1642,7 +1639,7 @@
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>1377</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1650,37 +1647,37 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.2036363636363636</v>
+        <v>0.2210144927536232</v>
       </c>
       <c r="C23">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D23">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E23">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K23">
-        <v>0.1002785515320334</v>
+        <v>0.0855614973262032</v>
       </c>
       <c r="L23">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M23">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1692,7 +1689,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>323</v>
+        <v>342</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1700,49 +1697,49 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.1959798994974874</v>
+        <v>0.21</v>
       </c>
       <c r="C24">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D24">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E24">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K24">
-        <v>0.09657320872274143</v>
+        <v>0.06133333333333333</v>
       </c>
       <c r="L24">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="M24">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="N24">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="O24">
-        <v>0.08999999999999997</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P24" t="b">
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>290</v>
+        <v>704</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1750,13 +1747,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.1847988077496274</v>
+        <v>0.1968253968253968</v>
       </c>
       <c r="C25">
-        <v>124</v>
+        <v>62</v>
       </c>
       <c r="D25">
-        <v>127</v>
+        <v>63</v>
       </c>
       <c r="E25">
         <v>0.02</v>
@@ -1768,31 +1765,31 @@
         <v>1</v>
       </c>
       <c r="H25">
-        <v>547</v>
+        <v>253</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K25">
-        <v>0.07085561497326204</v>
+        <v>0.05823293172690763</v>
       </c>
       <c r="L25">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="M25">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="N25">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O25">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P25" t="b">
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>695</v>
+        <v>469</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1800,13 +1797,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.1844380403458213</v>
+        <v>0.193452380952381</v>
       </c>
       <c r="C26">
-        <v>64</v>
+        <v>130</v>
       </c>
       <c r="D26">
-        <v>65</v>
+        <v>132</v>
       </c>
       <c r="E26">
         <v>0.02</v>
@@ -1818,7 +1815,7 @@
         <v>1</v>
       </c>
       <c r="H26">
-        <v>283</v>
+        <v>542</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1826,25 +1823,25 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.1740506329113924</v>
+        <v>0.1930835734870317</v>
       </c>
       <c r="C27">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="D27">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27">
-        <v>261</v>
+        <v>280</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1852,13 +1849,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1682242990654206</v>
+        <v>0.1835443037974684</v>
       </c>
       <c r="C28">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="D28">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1870,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>178</v>
+        <v>258</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1878,13 +1875,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.1518324607329843</v>
+        <v>0.1728971962616822</v>
       </c>
       <c r="C29">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D29">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1896,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>162</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1904,13 +1901,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1475770925110132</v>
+        <v>0.1541850220264317</v>
       </c>
       <c r="C30">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D30">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1922,7 +1919,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1930,7 +1927,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.1273408239700375</v>
+        <v>0.1370967741935484</v>
       </c>
       <c r="C31">
         <v>34</v>
@@ -1948,7 +1945,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>233</v>
+        <v>214</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1956,25 +1953,25 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.1212121212121212</v>
+        <v>0.1278195488721804</v>
       </c>
       <c r="C32">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D32">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E32">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F32">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="G32" t="b">
         <v>1</v>
       </c>
       <c r="H32">
-        <v>319</v>
+        <v>232</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1982,25 +1979,25 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.1209677419354839</v>
+        <v>0.1101694915254237</v>
       </c>
       <c r="C33">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D33">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33">
-        <v>218</v>
+        <v>315</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2008,25 +2005,25 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.115819209039548</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="C34">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D34">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E34">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F34">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="G34" t="b">
         <v>1</v>
       </c>
       <c r="H34">
-        <v>313</v>
+        <v>325</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2034,13 +2031,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.1073825503355705</v>
+        <v>0.08085808580858085</v>
       </c>
       <c r="C35">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D35">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E35">
         <v>0.04</v>
@@ -2052,7 +2049,7 @@
         <v>1</v>
       </c>
       <c r="H35">
-        <v>399</v>
+        <v>557</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2060,25 +2057,25 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.08112582781456953</v>
+        <v>0.08035714285714286</v>
       </c>
       <c r="C36">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="D36">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E36">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
       <c r="F36">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="G36" t="b">
         <v>1</v>
       </c>
       <c r="H36">
-        <v>555</v>
+        <v>412</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2086,25 +2083,25 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.06775700934579439</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="C37">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="D37">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="E37">
-        <v>0.17</v>
+        <v>0.09</v>
       </c>
       <c r="F37">
-        <v>0.83</v>
+        <v>0.91</v>
       </c>
       <c r="G37" t="b">
         <v>1</v>
       </c>
       <c r="H37">
-        <v>399</v>
+        <v>609</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2112,51 +2109,25 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.0561941251596424</v>
+        <v>0.05548387096774193</v>
       </c>
       <c r="C38">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D38">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="E38">
-        <v>0.2</v>
+        <v>0.31</v>
       </c>
       <c r="F38">
-        <v>0.8</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G38" t="b">
         <v>1</v>
       </c>
       <c r="H38">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39">
-        <v>0.04930662557781202</v>
-      </c>
-      <c r="C39">
-        <v>32</v>
-      </c>
-      <c r="D39">
-        <v>38</v>
-      </c>
-      <c r="E39">
-        <v>0.16</v>
-      </c>
-      <c r="F39">
-        <v>0.84</v>
-      </c>
-      <c r="G39" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39">
-        <v>617</v>
+        <v>732</v>
       </c>
     </row>
   </sheetData>
